--- a/common/BranchScene_Chapter10001.xlsx
+++ b/common/BranchScene_Chapter10001.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
   <si>
     <t>序号</t>
   </si>
@@ -74,13 +74,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">人物立绘id
 </t>
     </r>
@@ -91,7 +84,8 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t>关联RolePortray</t>
+      <t>关联RolePortray
+主角关联头像id</t>
     </r>
   </si>
   <si>
@@ -433,6 +427,12 @@
       </rPr>
       <t>int</t>
     </r>
+  </si>
+  <si>
+    <t>丫鬟甲</t>
+  </si>
+  <si>
+    <t>红蔷</t>
   </si>
 </sst>
 </file>
@@ -445,7 +445,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,42 +461,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -507,11 +488,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -531,6 +518,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -538,23 +573,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -577,29 +605,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,7 +625,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -646,19 +652,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,163 +820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,30 +869,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -917,6 +893,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -927,6 +918,35 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,26 +965,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -973,10 +973,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,139 +985,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1131,11 +1134,26 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1456,82 +1474,1428 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="12.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="1"/>
     <col min="8" max="8" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="180.75" spans="1:10">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row r="1" ht="120.75" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="48.75" spans="1:10">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="10" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>1011</v>
+      </c>
+      <c r="B13" s="1">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>1012</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" s="1">
+        <v>3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="1">
+        <v>1014</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="1">
+        <v>1015</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="1">
+        <v>1016</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="1">
+        <v>1017</v>
+      </c>
+      <c r="B19" s="6">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="1">
+        <v>1018</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="1">
+        <v>1019</v>
+      </c>
+      <c r="B21" s="1">
+        <v>5</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3</v>
+      </c>
+      <c r="H21" s="1">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="1">
+        <v>1020</v>
+      </c>
+      <c r="B22" s="1">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1">
+        <v>1021</v>
+      </c>
+      <c r="B23" s="1">
+        <v>4</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>10</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B24" s="1">
+        <v>5</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>1023</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>7</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>1025</v>
+      </c>
+      <c r="B27" s="1">
+        <v>4</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>10</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>7</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>1027</v>
+      </c>
+      <c r="B29" s="1">
+        <v>4</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>1028</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>10</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>1029</v>
+      </c>
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>7</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>10</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="1">
+        <v>1031</v>
+      </c>
+      <c r="B33" s="7">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>10</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="1">
+        <v>1032</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>7</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="1">
+        <v>1033</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1">
+        <v>1034</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37" s="1">
+        <v>1035</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>7</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1035</v>
+      </c>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="1">
+        <v>1036</v>
+      </c>
+      <c r="B38" s="1">
+        <v>4</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>10</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="1">
+        <v>1037</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+      <c r="G39" s="1">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="1">
+        <v>1038</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>10</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+      <c r="G40" s="1">
+        <v>3</v>
+      </c>
+      <c r="H40" s="1">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1">
+        <v>1039</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B42" s="7">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>7</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1040</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1">
+        <v>1041</v>
+      </c>
+      <c r="B43" s="1">
+        <v>4</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>10</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1">
+        <v>1042</v>
+      </c>
+      <c r="B44" s="1">
+        <v>4</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+      <c r="G44" s="1">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1">
+        <v>1043</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>10</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B46" s="7">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>7</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>1044</v>
+      </c>
+      <c r="I46" s="11"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="1">
+        <v>1045</v>
+      </c>
+      <c r="B47" s="1">
+        <v>5</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>1045</v>
+      </c>
+      <c r="I47" s="12"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="1">
+        <v>1046</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+      <c r="G48" s="1">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>1046</v>
+      </c>
+      <c r="I48" s="11"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="1">
+        <v>1047</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+      <c r="G49" s="1">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="1">
+        <v>1048</v>
+      </c>
+      <c r="B50" s="1">
+        <v>4</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>10</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="1">
+        <v>1049</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+      <c r="G51" s="1">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="1">
+        <v>1050</v>
+      </c>
+      <c r="B52" s="1">
+        <v>4</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>10</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="1">
+        <v>1051</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>3</v>
+      </c>
+      <c r="H53" s="1">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="1">
+        <v>1052</v>
+      </c>
+      <c r="B54" s="1">
+        <v>4</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>10</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>3</v>
+      </c>
+      <c r="H54" s="1">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="1">
+        <v>1053</v>
+      </c>
+      <c r="B55" s="1">
+        <v>0</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1053</v>
       </c>
     </row>
   </sheetData>

--- a/common/BranchScene_Chapter10001.xlsx
+++ b/common/BranchScene_Chapter10001.xlsx
@@ -74,6 +74,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">人物立绘id
 </t>
     </r>
@@ -467,8 +474,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -482,7 +529,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -504,31 +551,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -536,38 +559,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,13 +574,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -598,7 +589,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -606,6 +605,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -652,181 +659,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,6 +875,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -883,25 +908,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -925,8 +941,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -941,30 +972,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -973,10 +980,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -985,137 +992,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1149,11 +1156,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1477,7 +1481,7 @@
   <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1554,7 +1558,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>1001</v>
       </c>
@@ -1579,8 +1583,11 @@
       <c r="H3" s="1">
         <v>1001</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1002</v>
       </c>
@@ -1605,8 +1612,11 @@
       <c r="H4" s="1">
         <v>1002</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>1003</v>
       </c>
@@ -1631,8 +1641,11 @@
       <c r="H5" s="1">
         <v>1003</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>1004</v>
       </c>
@@ -1645,6 +1658,9 @@
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="E6" s="1">
+        <v>32</v>
+      </c>
       <c r="F6" s="1">
         <v>0</v>
       </c>
@@ -1654,8 +1670,11 @@
       <c r="H6" s="1">
         <v>1004</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>1005</v>
       </c>
@@ -1668,6 +1687,9 @@
       <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E7" s="1">
+        <v>31</v>
+      </c>
       <c r="F7" s="1">
         <v>0</v>
       </c>
@@ -1677,8 +1699,11 @@
       <c r="H7" s="1">
         <v>1005</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>1006</v>
       </c>
@@ -1691,6 +1716,9 @@
       <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
       <c r="F8" s="1">
         <v>0</v>
       </c>
@@ -1700,8 +1728,11 @@
       <c r="H8" s="1">
         <v>1006</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>1007</v>
       </c>
@@ -1726,8 +1757,11 @@
       <c r="H9" s="1">
         <v>1007</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1">
         <v>1008</v>
       </c>
@@ -1752,8 +1786,11 @@
       <c r="H10" s="1">
         <v>1008</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1">
         <v>1009</v>
       </c>
@@ -1766,6 +1803,9 @@
       <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E11" s="1">
+        <v>31</v>
+      </c>
       <c r="F11" s="1">
         <v>0</v>
       </c>
@@ -1775,8 +1815,11 @@
       <c r="H11" s="1">
         <v>1009</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1">
         <v>1010</v>
       </c>
@@ -1789,6 +1832,9 @@
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E12" s="1">
+        <v>31</v>
+      </c>
       <c r="F12" s="1">
         <v>0</v>
       </c>
@@ -1798,8 +1844,11 @@
       <c r="H12" s="1">
         <v>1010</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1">
         <v>1011</v>
       </c>
@@ -1812,6 +1861,9 @@
       <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E13" s="1">
+        <v>31</v>
+      </c>
       <c r="F13" s="1">
         <v>0</v>
       </c>
@@ -1821,8 +1873,11 @@
       <c r="H13" s="1">
         <v>1011</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1">
         <v>1012</v>
       </c>
@@ -1835,6 +1890,9 @@
       <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E14" s="1">
+        <v>31</v>
+      </c>
       <c r="F14" s="1">
         <v>0</v>
       </c>
@@ -1844,8 +1902,11 @@
       <c r="H14" s="1">
         <v>1012</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1">
         <v>1013</v>
       </c>
@@ -1870,8 +1931,11 @@
       <c r="H15" s="1">
         <v>1013</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1">
         <v>1014</v>
       </c>
@@ -1896,8 +1960,11 @@
       <c r="H16" s="1">
         <v>1014</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1">
         <v>1015</v>
       </c>
@@ -1922,8 +1989,11 @@
       <c r="H17" s="1">
         <v>1015</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1">
         <v>1016</v>
       </c>
@@ -1948,8 +2018,11 @@
       <c r="H18" s="1">
         <v>1016</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1">
         <v>1017</v>
       </c>
@@ -1974,8 +2047,11 @@
       <c r="H19" s="1">
         <v>1017</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1">
         <v>1018</v>
       </c>
@@ -2000,8 +2076,11 @@
       <c r="H20" s="1">
         <v>1018</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="I20" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1">
         <v>1019</v>
       </c>
@@ -2014,6 +2093,9 @@
       <c r="D21" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E21" s="1">
+        <v>31</v>
+      </c>
       <c r="F21" s="1">
         <v>0</v>
       </c>
@@ -2023,8 +2105,11 @@
       <c r="H21" s="1">
         <v>1019</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1">
         <v>1020</v>
       </c>
@@ -2037,6 +2122,9 @@
       <c r="D22" s="1">
         <v>0</v>
       </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
       <c r="F22" s="1">
         <v>0</v>
       </c>
@@ -2046,8 +2134,11 @@
       <c r="H22" s="1">
         <v>1020</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="I22" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1">
         <v>1021</v>
       </c>
@@ -2072,8 +2163,11 @@
       <c r="H23" s="1">
         <v>1021</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="I23" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1">
         <v>1022</v>
       </c>
@@ -2086,6 +2180,9 @@
       <c r="D24" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E24" s="1">
+        <v>31</v>
+      </c>
       <c r="F24" s="1">
         <v>0</v>
       </c>
@@ -2095,8 +2192,11 @@
       <c r="H24" s="1">
         <v>1022</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="I24" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1">
         <v>1023</v>
       </c>
@@ -2121,8 +2221,11 @@
       <c r="H25" s="1">
         <v>1023</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="I25" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1">
         <v>1024</v>
       </c>
@@ -2147,8 +2250,11 @@
       <c r="H26" s="1">
         <v>1024</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="I26" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1">
         <v>1025</v>
       </c>
@@ -2173,8 +2279,11 @@
       <c r="H27" s="1">
         <v>1025</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1">
         <v>1026</v>
       </c>
@@ -2199,8 +2308,11 @@
       <c r="H28" s="1">
         <v>1026</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="I28" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1">
         <v>1027</v>
       </c>
@@ -2225,8 +2337,11 @@
       <c r="H29" s="1">
         <v>1027</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="I29" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1">
         <v>1028</v>
       </c>
@@ -2251,8 +2366,11 @@
       <c r="H30" s="1">
         <v>1028</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="I30" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1">
         <v>1029</v>
       </c>
@@ -2277,8 +2395,11 @@
       <c r="H31" s="1">
         <v>1029</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="I31" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1">
         <v>1030</v>
       </c>
@@ -2303,8 +2424,11 @@
       <c r="H32" s="1">
         <v>1030</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="I32" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1">
         <v>1031</v>
       </c>
@@ -2329,8 +2453,11 @@
       <c r="H33" s="1">
         <v>1031</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="I33" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1">
         <v>1032</v>
       </c>
@@ -2355,8 +2482,11 @@
       <c r="H34" s="1">
         <v>1032</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="I34" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1">
         <v>1033</v>
       </c>
@@ -2381,8 +2511,11 @@
       <c r="H35" s="1">
         <v>1033</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="I35" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1">
         <v>1034</v>
       </c>
@@ -2406,6 +2539,9 @@
       </c>
       <c r="H36" s="1">
         <v>1034</v>
+      </c>
+      <c r="I36" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2433,9 +2569,11 @@
       <c r="H37" s="1">
         <v>1035</v>
       </c>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1">
         <v>1036</v>
       </c>
@@ -2460,8 +2598,11 @@
       <c r="H38" s="1">
         <v>1036</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="I38" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1">
         <v>1037</v>
       </c>
@@ -2474,6 +2615,9 @@
       <c r="D39" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="E39" s="1">
+        <v>31</v>
+      </c>
       <c r="F39" s="1">
         <v>0</v>
       </c>
@@ -2483,8 +2627,11 @@
       <c r="H39" s="1">
         <v>1037</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="I39" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1">
         <v>1038</v>
       </c>
@@ -2509,8 +2656,11 @@
       <c r="H40" s="1">
         <v>1038</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1">
         <v>1039</v>
       </c>
@@ -2534,6 +2684,9 @@
       </c>
       <c r="H41" s="1">
         <v>1039</v>
+      </c>
+      <c r="I41" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2561,9 +2714,11 @@
       <c r="H42" s="1">
         <v>1040</v>
       </c>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1">
         <v>1041</v>
       </c>
@@ -2588,8 +2743,11 @@
       <c r="H43" s="1">
         <v>1041</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="I43" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1">
         <v>1042</v>
       </c>
@@ -2614,8 +2772,11 @@
       <c r="H44" s="1">
         <v>1042</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="I44" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1">
         <v>1043</v>
       </c>
@@ -2639,6 +2800,9 @@
       </c>
       <c r="H45" s="1">
         <v>1043</v>
+      </c>
+      <c r="I45" s="11">
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2666,7 +2830,9 @@
       <c r="H46" s="1">
         <v>1044</v>
       </c>
-      <c r="I46" s="11"/>
+      <c r="I46" s="11">
+        <v>23</v>
+      </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" s="1">
@@ -2681,6 +2847,9 @@
       <c r="D47" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="E47" s="1">
+        <v>31</v>
+      </c>
       <c r="F47" s="1">
         <v>0</v>
       </c>
@@ -2690,7 +2859,9 @@
       <c r="H47" s="1">
         <v>1045</v>
       </c>
-      <c r="I47" s="12"/>
+      <c r="I47" s="11">
+        <v>23</v>
+      </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="1">
@@ -2705,6 +2876,9 @@
       <c r="D48" s="7" t="s">
         <v>21</v>
       </c>
+      <c r="E48" s="1">
+        <v>31</v>
+      </c>
       <c r="F48" s="1">
         <v>0</v>
       </c>
@@ -2714,9 +2888,11 @@
       <c r="H48" s="1">
         <v>1046</v>
       </c>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="I48" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1">
         <v>1047</v>
       </c>
@@ -2741,8 +2917,11 @@
       <c r="H49" s="1">
         <v>1047</v>
       </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="I49" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1">
         <v>1048</v>
       </c>
@@ -2767,8 +2946,11 @@
       <c r="H50" s="1">
         <v>1048</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="I50" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1">
         <v>1049</v>
       </c>
@@ -2793,8 +2975,11 @@
       <c r="H51" s="1">
         <v>1049</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="I51" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1">
         <v>1050</v>
       </c>
@@ -2819,8 +3004,11 @@
       <c r="H52" s="1">
         <v>1050</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="I52" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1">
         <v>1051</v>
       </c>
@@ -2845,8 +3033,11 @@
       <c r="H53" s="1">
         <v>1051</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="I53" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1">
         <v>1052</v>
       </c>
@@ -2871,8 +3062,11 @@
       <c r="H54" s="1">
         <v>1052</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="I54" s="11">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1">
         <v>1053</v>
       </c>
@@ -2896,6 +3090,9 @@
       </c>
       <c r="H55" s="1">
         <v>1053</v>
+      </c>
+      <c r="I55" s="11">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
